--- a/biology/Zoologie/Austrodomus/Austrodomus.xlsx
+++ b/biology/Zoologie/Austrodomus/Austrodomus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austrodomus est un genre d'araignées aranéomorphes de la famille des Prodidomidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austrodomus est un genre d'araignées aranéomorphes de la famille des Prodidomidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique du Sud, en Namibie, au Mozambique et en Tanzanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique du Sud, en Namibie, au Mozambique et en Tanzanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 1,66 à 2,50 mm et les femelles de 2,04 à 5,34 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 1,66 à 2,50 mm et les femelles de 2,04 à 5,34 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 29/01/2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 29/01/2022) :
 Austrodomus gamsberg Rodrigues &amp; Rheims, 2020
 Austrodomus oxoniensis (Cooke, 1964)
 Austrodomus scaber (Purcell, 1904)
@@ -607,10 +625,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Lawrence en 1947 dans les Prodidomidae. Il est placé dans les Gnaphosidae par Azevedo, Griswold et Santos en 2018[4] puis dans les Prodidomidae par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022[5].
-Katumbea[6] a été placée en synonymie par Rodrigues et Rheims en 2020[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Lawrence en 1947 dans les Prodidomidae. Il est placé dans les Gnaphosidae par Azevedo, Griswold et Santos en 2018 puis dans les Prodidomidae par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022.
+Katumbea a été placée en synonymie par Rodrigues et Rheims en 2020.
 </t>
         </is>
       </c>
@@ -639,7 +659,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Lawrence, 1947 : « A collection of Arachnida made by Dr. I. Trägårdh in Natal and Zululand (1904-1905). » Göteborgs Konglige Veternskaps- och Vitterhets-Samhälles Handlingar, sér. B, vol. 5, no 9, p. 1-41.</t>
         </is>
